--- a/_Prototype/Document/Excel 문서/ESCAPE ISLAND 아이템.xlsx
+++ b/_Prototype/Document/Excel 문서/ESCAPE ISLAND 아이템.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2022\git\EscapeIsland\Document\아이템\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2022\git\EscapeIsland\_Prototype\Document\Excel 문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C3B569-4FF6-423E-8F6B-2AE2A499DFFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E7CF69-C117-46BA-8AE0-F25D715B65E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{C62DB4D4-4EA3-4FBD-82E2-99CB506D71E7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="3" xr2:uid="{C62DB4D4-4EA3-4FBD-82E2-99CB506D71E7}"/>
   </bookViews>
   <sheets>
     <sheet name="인원 수당 재료 수" sheetId="1" r:id="rId1"/>
     <sheet name="인원 수당 낮밤 시간" sheetId="2" r:id="rId2"/>
     <sheet name="맵 래퍼런스" sheetId="3" r:id="rId3"/>
+    <sheet name="아이템 등급" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t xml:space="preserve">                재료 인원 수</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,10 +49,6 @@
   </si>
   <si>
     <t>베리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플라스틱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -145,6 +142,26 @@
   </si>
   <si>
     <t>일 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빈 물통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빈 배터리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철 광석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구리 광석</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -355,7 +372,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -392,6 +409,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -404,22 +442,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -428,26 +469,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2612,299 +2641,277 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F45689-DBCB-4087-BD74-A3BAA128D243}">
-  <dimension ref="B3:M28"/>
+  <dimension ref="B3:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="5.375" customWidth="1"/>
-    <col min="4" max="13" width="14.125" customWidth="1"/>
+    <col min="4" max="12" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="20" t="s">
+    <row r="3" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="19" t="s">
+      <c r="C3" s="17"/>
+      <c r="D3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="18"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="19">
+        <v>4</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="16">
         <v>8</v>
       </c>
-      <c r="L3" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" s="19" t="s">
+      <c r="E5" s="16">
+        <v>4</v>
+      </c>
+      <c r="F5" s="28">
+        <v>1</v>
+      </c>
+      <c r="G5" s="28">
+        <v>1</v>
+      </c>
+      <c r="H5" s="28">
+        <v>6</v>
+      </c>
+      <c r="I5" s="28">
+        <v>4</v>
+      </c>
+      <c r="J5" s="28">
+        <v>8</v>
+      </c>
+      <c r="K5" s="28">
+        <v>2</v>
+      </c>
+      <c r="L5" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="21"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="16"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="19">
+        <v>6</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="16">
+        <v>10</v>
+      </c>
+      <c r="E7" s="16">
+        <v>6</v>
+      </c>
+      <c r="F7" s="28">
+        <v>2</v>
+      </c>
+      <c r="G7" s="28">
+        <v>2</v>
+      </c>
+      <c r="H7" s="28">
+        <v>9</v>
+      </c>
+      <c r="I7" s="28">
+        <v>6</v>
+      </c>
+      <c r="J7" s="28">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="12">
+      <c r="K7" s="28">
+        <v>3</v>
+      </c>
+      <c r="L7" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="16"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="19">
+        <v>8</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="16">
+        <v>12</v>
+      </c>
+      <c r="E9" s="16">
+        <v>8</v>
+      </c>
+      <c r="F9" s="28">
+        <v>2</v>
+      </c>
+      <c r="G9" s="28">
+        <v>2</v>
+      </c>
+      <c r="H9" s="28">
+        <v>12</v>
+      </c>
+      <c r="I9" s="28">
+        <v>8</v>
+      </c>
+      <c r="J9" s="28">
+        <v>16</v>
+      </c>
+      <c r="K9" s="28">
         <v>4</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="18">
-        <v>8</v>
-      </c>
-      <c r="E5" s="18">
+      <c r="L9" s="16">
         <v>4</v>
       </c>
-      <c r="F5" s="18">
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="16"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="19">
         <v>10</v>
       </c>
-      <c r="G5" s="18">
-        <v>1</v>
-      </c>
-      <c r="H5" s="18">
-        <v>1</v>
-      </c>
-      <c r="I5" s="18">
-        <v>6</v>
-      </c>
-      <c r="J5" s="18">
-        <v>4</v>
-      </c>
-      <c r="K5" s="18">
-        <v>8</v>
-      </c>
-      <c r="L5" s="18">
-        <v>2</v>
-      </c>
-      <c r="M5" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="12">
-        <v>6</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="18">
+      <c r="C11" s="20"/>
+      <c r="D11" s="16">
+        <v>14</v>
+      </c>
+      <c r="E11" s="16">
         <v>10</v>
       </c>
-      <c r="E7" s="18">
-        <v>6</v>
-      </c>
-      <c r="F7" s="18">
-        <v>14</v>
-      </c>
-      <c r="G7" s="18">
-        <v>2</v>
-      </c>
-      <c r="H7" s="18">
-        <v>2</v>
-      </c>
-      <c r="I7" s="18">
-        <v>9</v>
-      </c>
-      <c r="J7" s="18">
-        <v>6</v>
-      </c>
-      <c r="K7" s="18">
+      <c r="F11" s="28">
+        <v>3</v>
+      </c>
+      <c r="G11" s="28">
+        <v>3</v>
+      </c>
+      <c r="H11" s="28">
         <v>12</v>
       </c>
-      <c r="L7" s="18">
-        <v>3</v>
-      </c>
-      <c r="M7" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="12">
-        <v>8</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="18">
-        <v>12</v>
-      </c>
-      <c r="E9" s="18">
-        <v>8</v>
-      </c>
-      <c r="F9" s="18">
-        <v>18</v>
-      </c>
-      <c r="G9" s="18">
-        <v>2</v>
-      </c>
-      <c r="H9" s="18">
-        <v>2</v>
-      </c>
-      <c r="I9" s="18">
-        <v>12</v>
-      </c>
-      <c r="J9" s="18">
-        <v>8</v>
-      </c>
-      <c r="K9" s="18">
-        <v>16</v>
-      </c>
-      <c r="L9" s="18">
-        <v>4</v>
-      </c>
-      <c r="M9" s="18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="12">
+      <c r="I11" s="28">
         <v>10</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="18">
-        <v>14</v>
-      </c>
-      <c r="E11" s="18">
-        <v>10</v>
-      </c>
-      <c r="F11" s="18">
-        <v>22</v>
-      </c>
-      <c r="G11" s="18">
-        <v>3</v>
-      </c>
-      <c r="H11" s="18">
-        <v>3</v>
-      </c>
-      <c r="I11" s="18">
-        <v>12</v>
-      </c>
-      <c r="J11" s="18">
-        <v>10</v>
-      </c>
-      <c r="K11" s="18">
+      <c r="J11" s="28">
         <v>20</v>
       </c>
-      <c r="L11" s="18">
+      <c r="K11" s="28">
         <v>5</v>
       </c>
-      <c r="M11" s="18">
+      <c r="L11" s="16">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="16"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -2914,11 +2921,10 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
@@ -2928,205 +2934,189 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
+  <mergeCells count="50">
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G11:G12"/>
     <mergeCell ref="H3:H4"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
     <mergeCell ref="H9:H10"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="B11:C12"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E11:E12"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="D11:D12"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="B11:C12"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="E5:E6"/>
     <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="K7:K8"/>
     <mergeCell ref="K9:K10"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="E9:E10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3148,472 +3138,546 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="23">
+        <v>4</v>
+      </c>
+      <c r="D3" s="18">
+        <v>5</v>
+      </c>
+      <c r="E3" s="18">
+        <v>6</v>
+      </c>
+      <c r="F3" s="18">
+        <v>7</v>
+      </c>
+      <c r="G3" s="18">
+        <v>8</v>
+      </c>
+      <c r="H3" s="18">
         <v>9</v>
       </c>
-      <c r="C3" s="24">
-        <v>4</v>
-      </c>
-      <c r="D3" s="19">
-        <v>5</v>
-      </c>
-      <c r="E3" s="19">
-        <v>6</v>
-      </c>
-      <c r="F3" s="19">
-        <v>7</v>
-      </c>
-      <c r="G3" s="19">
-        <v>8</v>
-      </c>
-      <c r="H3" s="19">
+      <c r="I3" s="18">
+        <v>10</v>
+      </c>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="19">
-        <v>10</v>
-      </c>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="18">
+      <c r="C5" s="16">
         <v>60</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="16">
         <v>60</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="16">
         <v>60</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="16">
         <v>60</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="27">
         <v>90</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="16">
         <v>90</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="16">
         <v>90</v>
       </c>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="23"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="30"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B9" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="25">
+      <c r="C9" s="27">
         <v>20</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="25">
         <v>20</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="27">
         <v>25</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="28">
         <v>25</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="16">
         <v>25</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="16">
         <v>30</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="16">
         <v>30</v>
       </c>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="23"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="149">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="I11:I12"/>
@@ -3638,106 +3702,32 @@
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="M19:M20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3762,7 +3752,7 @@
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3"/>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -3781,7 +3771,7 @@
     </row>
     <row r="4" spans="2:9" ht="185.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -3793,7 +3783,7 @@
     </row>
     <row r="5" spans="2:9" ht="248.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -3805,12 +3795,12 @@
     </row>
     <row r="6" spans="2:9" ht="185.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -3819,27 +3809,27 @@
     </row>
     <row r="7" spans="2:9" ht="185.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
     </row>
     <row r="8" spans="2:9" ht="185.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="9"/>
@@ -3847,7 +3837,7 @@
     </row>
     <row r="9" spans="2:9" ht="185.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -3859,7 +3849,7 @@
     </row>
     <row r="10" spans="2:9" ht="185.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -3871,7 +3861,7 @@
     </row>
     <row r="11" spans="2:9" ht="185.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
@@ -3896,4 +3886,175 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{343D1FF0-A3A8-4BDE-9560-31BF7B2B1458}">
+  <dimension ref="D2:L19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="12" width="17.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+    </row>
+    <row r="3" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+    </row>
+    <row r="4" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+    </row>
+    <row r="7" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D7" s="12">
+        <v>1</v>
+      </c>
+      <c r="E7" s="12">
+        <v>2</v>
+      </c>
+      <c r="F7" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D8" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+    </row>
+    <row r="10" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D10" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+    </row>
+    <row r="12" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D12" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+    </row>
+    <row r="14" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D14" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D15" s="32"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D16" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="16"/>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="16"/>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D18" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D19" s="18"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="E8:E9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>